--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ifnar2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.243927</v>
+        <v>0.002067</v>
       </c>
       <c r="H2">
-        <v>0.731781</v>
+        <v>0.006201</v>
       </c>
       <c r="I2">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401285</v>
       </c>
       <c r="J2">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401286</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.65724566666666</v>
+        <v>17.95291733333333</v>
       </c>
       <c r="N2">
-        <v>79.97173699999999</v>
+        <v>53.858752</v>
       </c>
       <c r="O2">
-        <v>0.1289633445676506</v>
+        <v>0.07393528283891208</v>
       </c>
       <c r="P2">
-        <v>0.1319729422695888</v>
+        <v>0.07489467518434184</v>
       </c>
       <c r="Q2">
-        <v>6.502421963732999</v>
+        <v>0.03710868012799999</v>
       </c>
       <c r="R2">
-        <v>58.52179767359699</v>
+        <v>0.333978121152</v>
       </c>
       <c r="S2">
-        <v>0.1158056572703745</v>
+        <v>0.0003544868170090307</v>
       </c>
       <c r="T2">
-        <v>0.1185081960511482</v>
+        <v>0.0003590866768558539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.243927</v>
+        <v>0.002067</v>
       </c>
       <c r="H3">
-        <v>0.731781</v>
+        <v>0.006201</v>
       </c>
       <c r="I3">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401285</v>
       </c>
       <c r="J3">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.525465</v>
       </c>
       <c r="O3">
-        <v>0.1492076309918978</v>
+        <v>0.1270155020409099</v>
       </c>
       <c r="P3">
-        <v>0.1526896664869473</v>
+        <v>0.1286636691369156</v>
       </c>
       <c r="Q3">
-        <v>7.523153033684999</v>
+        <v>0.063750045385</v>
       </c>
       <c r="R3">
-        <v>67.70837730316499</v>
+        <v>0.573750408465</v>
       </c>
       <c r="S3">
-        <v>0.1339844886521851</v>
+        <v>0.0006089828739464752</v>
       </c>
       <c r="T3">
-        <v>0.1371112640199832</v>
+        <v>0.0006168851025622098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.243927</v>
+        <v>0.002067</v>
       </c>
       <c r="H4">
-        <v>0.731781</v>
+        <v>0.006201</v>
       </c>
       <c r="I4">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401285</v>
       </c>
       <c r="J4">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401286</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.43473999999999</v>
+        <v>100.6030296666667</v>
       </c>
       <c r="N4">
-        <v>205.30422</v>
+        <v>301.809089</v>
       </c>
       <c r="O4">
-        <v>0.3310759508081305</v>
+        <v>0.4143122432277931</v>
       </c>
       <c r="P4">
-        <v>0.3388022192610742</v>
+        <v>0.4196884043718117</v>
       </c>
       <c r="Q4">
-        <v>16.69308082398</v>
+        <v>0.207946462321</v>
       </c>
       <c r="R4">
-        <v>150.23772741582</v>
+        <v>1.871518160889</v>
       </c>
       <c r="S4">
-        <v>0.2972974081766108</v>
+        <v>0.001986443044651411</v>
       </c>
       <c r="T4">
-        <v>0.3042353919846466</v>
+        <v>0.002012219347635509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.243927</v>
+        <v>0.002067</v>
       </c>
       <c r="H5">
-        <v>0.731781</v>
+        <v>0.006201</v>
       </c>
       <c r="I5">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401285</v>
       </c>
       <c r="J5">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401286</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.141445</v>
+        <v>9.3314655</v>
       </c>
       <c r="N5">
-        <v>28.28289</v>
+        <v>18.662931</v>
       </c>
       <c r="O5">
-        <v>0.0684139714591724</v>
+        <v>0.03842966177775806</v>
       </c>
       <c r="P5">
-        <v>0.04667369184674745</v>
+        <v>0.02595221952474473</v>
       </c>
       <c r="Q5">
-        <v>3.449480254515001</v>
+        <v>0.0192881391885</v>
       </c>
       <c r="R5">
-        <v>20.69688152709</v>
+        <v>0.115728835131</v>
       </c>
       <c r="S5">
-        <v>0.06143392882579948</v>
+        <v>0.000184253146255111</v>
       </c>
       <c r="T5">
-        <v>0.04191173530484977</v>
+        <v>0.0001244293568699865</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.243927</v>
+        <v>0.002067</v>
       </c>
       <c r="H6">
-        <v>0.731781</v>
+        <v>0.006201</v>
       </c>
       <c r="I6">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401285</v>
       </c>
       <c r="J6">
-        <v>0.8979734331380188</v>
+        <v>0.004794555500401286</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.628798</v>
+        <v>84.09011600000001</v>
       </c>
       <c r="N6">
-        <v>199.886394</v>
+        <v>252.270348</v>
       </c>
       <c r="O6">
-        <v>0.3223391021731487</v>
+        <v>0.3463073101146269</v>
       </c>
       <c r="P6">
-        <v>0.329861480135642</v>
+        <v>0.3508010317821862</v>
       </c>
       <c r="Q6">
-        <v>16.252562809746</v>
+        <v>0.173814269772</v>
       </c>
       <c r="R6">
-        <v>146.273065287714</v>
+        <v>1.564328427948</v>
       </c>
       <c r="S6">
-        <v>0.289451950213049</v>
+        <v>0.001660389618539258</v>
       </c>
       <c r="T6">
-        <v>0.2962068457773909</v>
+        <v>0.001681935016477727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02771466666666667</v>
+        <v>0.3352766666666667</v>
       </c>
       <c r="H7">
-        <v>0.08314400000000001</v>
+        <v>1.00583</v>
       </c>
       <c r="I7">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="J7">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.65724566666666</v>
+        <v>17.95291733333333</v>
       </c>
       <c r="N7">
-        <v>79.97173699999999</v>
+        <v>53.858752</v>
       </c>
       <c r="O7">
-        <v>0.1289633445676506</v>
+        <v>0.07393528283891208</v>
       </c>
       <c r="P7">
-        <v>0.1319729422695888</v>
+        <v>0.07489467518434184</v>
       </c>
       <c r="Q7">
-        <v>0.7387966779031111</v>
+        <v>6.019194280462222</v>
       </c>
       <c r="R7">
-        <v>6.649170101128</v>
+        <v>54.17274852415999</v>
       </c>
       <c r="S7">
-        <v>0.01315768729727612</v>
+        <v>0.05749935093568673</v>
       </c>
       <c r="T7">
-        <v>0.01346474621844059</v>
+        <v>0.05824546882469336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.02771466666666667</v>
+        <v>0.3352766666666667</v>
       </c>
       <c r="H8">
-        <v>0.08314400000000001</v>
+        <v>1.00583</v>
       </c>
       <c r="I8">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="J8">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>92.525465</v>
       </c>
       <c r="O8">
-        <v>0.1492076309918978</v>
+        <v>0.1270155020409099</v>
       </c>
       <c r="P8">
-        <v>0.1526896664869473</v>
+        <v>0.1286636691369156</v>
       </c>
       <c r="Q8">
-        <v>0.8547708068844444</v>
+        <v>10.34054316232778</v>
       </c>
       <c r="R8">
-        <v>7.692937261960001</v>
+        <v>93.06488846095</v>
       </c>
       <c r="S8">
-        <v>0.01522314233971267</v>
+        <v>0.0987797523143982</v>
       </c>
       <c r="T8">
-        <v>0.01557840246696413</v>
+        <v>0.1000615292227298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.02771466666666667</v>
+        <v>0.3352766666666667</v>
       </c>
       <c r="H9">
-        <v>0.08314400000000001</v>
+        <v>1.00583</v>
       </c>
       <c r="I9">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="J9">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.43473999999999</v>
+        <v>100.6030296666667</v>
       </c>
       <c r="N9">
-        <v>205.30422</v>
+        <v>301.809089</v>
       </c>
       <c r="O9">
-        <v>0.3310759508081305</v>
+        <v>0.4143122432277931</v>
       </c>
       <c r="P9">
-        <v>0.3388022192610742</v>
+        <v>0.4196884043718117</v>
       </c>
       <c r="Q9">
-        <v>1.89664600752</v>
+        <v>33.72984844320777</v>
       </c>
       <c r="R9">
-        <v>17.06981406768</v>
+        <v>303.56863598887</v>
       </c>
       <c r="S9">
-        <v>0.03377854263151971</v>
+        <v>0.3222099673603819</v>
       </c>
       <c r="T9">
-        <v>0.0345668272764276</v>
+        <v>0.3263909992633807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.02771466666666667</v>
+        <v>0.3352766666666667</v>
       </c>
       <c r="H10">
-        <v>0.08314400000000001</v>
+        <v>1.00583</v>
       </c>
       <c r="I10">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="J10">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.141445</v>
+        <v>9.3314655</v>
       </c>
       <c r="N10">
-        <v>28.28289</v>
+        <v>18.662931</v>
       </c>
       <c r="O10">
-        <v>0.0684139714591724</v>
+        <v>0.03842966177775806</v>
       </c>
       <c r="P10">
-        <v>0.04667369184674745</v>
+        <v>0.02595221952474473</v>
       </c>
       <c r="Q10">
-        <v>0.39192543436</v>
+        <v>3.128622647955</v>
       </c>
       <c r="R10">
-        <v>2.35155260616</v>
+        <v>18.77173588773</v>
       </c>
       <c r="S10">
-        <v>0.006980042633372924</v>
+        <v>0.0298866863566809</v>
       </c>
       <c r="T10">
-        <v>0.004761956541897685</v>
+        <v>0.02018299951951919</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.02771466666666667</v>
+        <v>0.3352766666666667</v>
       </c>
       <c r="H11">
-        <v>0.08314400000000001</v>
+        <v>1.00583</v>
       </c>
       <c r="I11">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="J11">
-        <v>0.1020265668619812</v>
+        <v>0.7776983968664127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,338 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.628798</v>
+        <v>84.09011600000001</v>
       </c>
       <c r="N11">
-        <v>199.886394</v>
+        <v>252.270348</v>
       </c>
       <c r="O11">
-        <v>0.3223391021731487</v>
+        <v>0.3463073101146269</v>
       </c>
       <c r="P11">
-        <v>0.329861480135642</v>
+        <v>0.3508010317821862</v>
       </c>
       <c r="Q11">
-        <v>1.846594926970667</v>
+        <v>28.19345379209334</v>
       </c>
       <c r="R11">
-        <v>16.619354342736</v>
+        <v>253.74108412884</v>
       </c>
       <c r="S11">
-        <v>0.03288715196009973</v>
+        <v>0.269322639899265</v>
       </c>
       <c r="T11">
-        <v>0.03365463435825116</v>
+        <v>0.2728174000360897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.09377033333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.281311</v>
+      </c>
+      <c r="I12">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="J12">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.95291733333333</v>
+      </c>
+      <c r="N12">
+        <v>53.858752</v>
+      </c>
+      <c r="O12">
+        <v>0.07393528283891208</v>
+      </c>
+      <c r="P12">
+        <v>0.07489467518434184</v>
+      </c>
+      <c r="Q12">
+        <v>1.683451042652444</v>
+      </c>
+      <c r="R12">
+        <v>15.151059383872</v>
+      </c>
+      <c r="S12">
+        <v>0.01608144508621633</v>
+      </c>
+      <c r="T12">
+        <v>0.01629011968279263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09377033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.281311</v>
+      </c>
+      <c r="I13">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="J13">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>30.84182166666666</v>
+      </c>
+      <c r="N13">
+        <v>92.525465</v>
+      </c>
+      <c r="O13">
+        <v>0.1270155020409099</v>
+      </c>
+      <c r="P13">
+        <v>0.1286636691369156</v>
+      </c>
+      <c r="Q13">
+        <v>2.892047898290555</v>
+      </c>
+      <c r="R13">
+        <v>26.028431084615</v>
+      </c>
+      <c r="S13">
+        <v>0.02762676685256522</v>
+      </c>
+      <c r="T13">
+        <v>0.02798525481162357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.09377033333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.281311</v>
+      </c>
+      <c r="I14">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="J14">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>100.6030296666667</v>
+      </c>
+      <c r="N14">
+        <v>301.809089</v>
+      </c>
+      <c r="O14">
+        <v>0.4143122432277931</v>
+      </c>
+      <c r="P14">
+        <v>0.4196884043718117</v>
+      </c>
+      <c r="Q14">
+        <v>9.433579626186555</v>
+      </c>
+      <c r="R14">
+        <v>84.90221663567898</v>
+      </c>
+      <c r="S14">
+        <v>0.09011583282275971</v>
+      </c>
+      <c r="T14">
+        <v>0.09128518576079545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.09377033333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.281311</v>
+      </c>
+      <c r="I15">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="J15">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.3314655</v>
+      </c>
+      <c r="N15">
+        <v>18.662931</v>
+      </c>
+      <c r="O15">
+        <v>0.03842966177775806</v>
+      </c>
+      <c r="P15">
+        <v>0.02595221952474473</v>
+      </c>
+      <c r="Q15">
+        <v>0.8750146304235</v>
+      </c>
+      <c r="R15">
+        <v>5.250087782541</v>
+      </c>
+      <c r="S15">
+        <v>0.00835872227482205</v>
+      </c>
+      <c r="T15">
+        <v>0.00564479064835555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.09377033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.281311</v>
+      </c>
+      <c r="I16">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="J16">
+        <v>0.217507047633186</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>84.09011600000001</v>
+      </c>
+      <c r="N16">
+        <v>252.270348</v>
+      </c>
+      <c r="O16">
+        <v>0.3463073101146269</v>
+      </c>
+      <c r="P16">
+        <v>0.3508010317821862</v>
+      </c>
+      <c r="Q16">
+        <v>7.885158207358668</v>
+      </c>
+      <c r="R16">
+        <v>70.966423866228</v>
+      </c>
+      <c r="S16">
+        <v>0.07532428059682265</v>
+      </c>
+      <c r="T16">
+        <v>0.07630169672961876</v>
       </c>
     </row>
   </sheetData>
